--- a/biology/Médecine/Biologie_humaine/Biologie_humaine.xlsx
+++ b/biology/Médecine/Biologie_humaine/Biologie_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biologie humaine est la branche de la biologie étudiant les appareils (nerveux, digestif, etc.), les organes et leur fonctionnement, afin de connaître les relations et les échanges nécessaires entre ces derniers pour maintenir l'homéostasie du corps humain. À ce titre, cette discipline est étroitement liée à la biologie cellulaire, l'immunologie, l'hématologie et à la microbiologie.
 Il y a là un vaste domaine de connaissance, s'intéressant au corps humain et à chacun de ses niveaux d'organisation :
